--- a/data/nutrition data/description_food.xlsx
+++ b/data/nutrition data/description_food.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CODING\Project Capstone Bisa AI\data\nutrition data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CE42E7B-6221-4A68-A436-DF75F2AACB55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC211606-E7BE-41DE-800E-7A6355B43E5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="735" windowWidth="21660" windowHeight="11385" xr2:uid="{520F1774-7274-418D-A934-22F2454EC33E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{520F1774-7274-418D-A934-22F2454EC33E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t xml:space="preserve">Nama Makanan </t>
   </si>
@@ -45,6 +45,146 @@
   </si>
   <si>
     <t>rendang</t>
+  </si>
+  <si>
+    <t>bika_ambon</t>
+  </si>
+  <si>
+    <t>Bika Ambon adalah sejenis kue tradisional yang berasal dari Indonesia, khususnya dari daerah Medan di Sumatera Utara. Kue ini memiliki tekstur yang lembut dan berpori-pori, 
+serta rasa yang manis dengan aroma kelapa yang khas. Bika Ambon sering dianggap sebagai salah satu kue khas Indonesia yang paling terkenal dan banyak disukai.
+Berikut adalah beberapa ciri khas dari Bika Ambon:
+Tekstur Berpori: Salah satu ciri khas utama dari Bika Ambon adalah teksturnya yang berpori, yang dihasilkan dari fermentasi adonan menggunakan ragi atau campuran tepung beras dan sagu.
+Aroma Kelapa: Bika Ambon umumnya memiliki aroma kelapa yang khas, karena biasanya menggunakan santan kelapa dalam pembuatannya.
+Warna Kuning: Kue ini memiliki warna kuning yang menarik, yang berasal dari penggunaan telur kuning dan pewarna alami, seperti kunyit.
+Rasa Manis: Bika Ambon memiliki rasa manis yang lezat, yang berasal dari penggunaan gula pasir dalam adonannya.
+Variasi Rasa: Meskipun rasa klasik Bika Ambon adalah manis, ada juga variasi rasa lainnya yang populer, seperti cokelat, keju, pandan, dan masih banyak lagi.
+Bika Ambon sering dijadikan sebagai camilan atau oleh-oleh yang disajikan dalam acara-acara penting, seperti perayaan hari raya atau sebagai oleh-oleh khas daerah. Proses pembuatan Bika Ambon 
+membutuhkan waktu dan keterampilan khusus, tetapi hasil akhirnya selalu dinikmati oleh banyak orang karena kelezatannya yang unik.</t>
+  </si>
+  <si>
+    <t>pempek</t>
+  </si>
+  <si>
+    <t>Pempek adalah makanan khas dari Palembang, Sumatera Selatan, Indonesia. Makanan ini terkenal karena rasanya yang unik dan teksturnya yang kenyal. Pempek terbuat
+dari campuran tepung terigu, sagu, ikan tenggiri yang dihaluskan, serta bahan-bahan lain seperti bawang putih, garam, dan penyedap rasa, yang kemudian dicetak menjadi 
+berbagai bentuk dan dimasak dengan cara direbus atau digoreng.
+Berikut adalah beberapa varian pempek yang populer:
+Pempek Kapal Selam: Pempek Kapal Selam adalah varian pempek yang berisi telur ayam rebus di dalamnya. Bentuknya menyerupai kapal selam, dengan telur ayam yang dimasukkan 
+ke dalam adonan pempek sebelum adonan dipanggang atau digoreng.
+Pempek Lenjer: Pempek Lenjer memiliki bentuk panjang dan pipih, mirip dengan batangan. Makanan ini biasanya disajikan dengan cuko (saus khas Palembang) dan irisan timun.
+Pempek Adaan: Pempek Adaan memiliki tekstur yang lebih padat dan kenyal dibandingkan dengan varian pempek lainnya. Biasanya disajikan dengan potongan kecil dan disantap bersama dengan cuko.
+Pempek Keriting: Pempek Keriting memiliki bentuk yang melingkar atau keriting. Makanan ini sering diisi dengan telur ayam, udang, atau ikan tenggiri cincang.
+Pempek Bulat: Pempek Bulat adalah varian pempek yang memiliki bentuk bulat, seperti bola. Makanan ini sering disajikan dalam ukuran kecil dan cocok sebagai camilan.
+Pempek biasanya disajikan dengan cuko, saus khas Palembang yang terbuat dari gula merah, cuka, cabai, bawang putih, dan garam. Cuko memberikan rasa pedas, asam, dan manis yang sempurna untuk 
+menemani rasa gurih dan kenyal dari pempek.
+Pempek merupakan salah satu makanan favorit di Indonesia dan telah menjadi bagian penting dari budaya kuliner Indonesia, tidak hanya di daerah asalnya di Palembang, tetapi juga di seluruh Indonesia.</t>
+  </si>
+  <si>
+    <t>sate_ayam</t>
+  </si>
+  <si>
+    <t>Sate Ayam adalah hidangan yang terdiri dari potongan daging ayam yang ditusuk dengan tusukan bambu atau logam, kemudian dipanggang atau dibakar di atas bara api. Ini adalah salah satu hidangan yang 
+sangat populer di Indonesia dan ditemukan di berbagai tempat, mulai dari warung pinggir jalan hingga restoran mewah.
+Berikut adalah beberapa ciri khas dari Sate Ayam:
+Daging Ayam: Potongan daging ayam yang digunakan biasanya dipotong kecil-kecil dan diberi bumbu untuk meningkatkan rasa dan kelembutannya. Daging ayam ini kemudian ditusuk dengan tusukan bambu atau logam.
+Tusukan: Potongan daging ayam yang telah disiapkan kemudian ditusuk dengan tusukan bambu atau logam, seringkali dengan penambahan potongan bawang merah, paprika, atau sayuran lainnya untuk memberikan variasi 
+rasa dan tekstur.
+Panggangan atau Pembakaran: Tusukan daging ayam kemudian dipanggang atau dibakar di atas bara api, biasanya menggunakan panggangan yang terbuat dari arang. Proses pemanggangan ini memberikan cita rasa yang 
+khas dan aroma yang menggugah selera pada Sate Ayam.
+Saus Kacang: Sate Ayam biasanya disajikan dengan saus kacang, yang terbuat dari kacang tanah yang dihaluskan dan dicampur dengan bumbu-bumbu lain seperti bawang putih, cabai, gula, garam, dan santan kelapa. Saus kacang 
+ini memberikan cita rasa gurih, manis, pedas, dan kental yang sempurna untuk dipadukan dengan daging ayam panggang.
+Pelengkap: Sate Ayam sering disajikan dengan pelengkap seperti lontong (ketupat), irisan bawang merah, atau timun yang segar. Pelengkap ini menambahkan variasi tekstur dan rasa yang menyempurnakan hidangan.
+Sate Ayam merupakan salah satu hidangan yang sangat populer di Indonesia dan memiliki tempat di hati banyak orang sebagai camilan atau hidangan utama yang lezat. Rasanya yang gurih, pedas, dan lezat membuatnya menjadi 
+salah satu makanan favorit banyak orang, baik di dalam negeri maupun di luar negeri.</t>
+  </si>
+  <si>
+    <t>gado_gado</t>
+  </si>
+  <si>
+    <t>Gado-gado adalah salah satu hidangan khas Indonesia yang terkenal sebagai makanan sehat dan lezat. Hidangan ini merupakan perpaduan harmonis dari berbagai macam sayuran segar yang direbus atau dikukus, 
+seperti kacang panjang, kentang, tauge (tauge kecambah), wortel, mentimun, dan kol.
+Di dalam piring Gado-gado, Anda akan menemukan semangkuk campuran sayuran yang berwarna-warni, memberikan kesan yang sangat menarik dan menggugah selera. Sayuran-sayuran tersebut umumnya dipotong menjadi 
+potongan kecil atau dadu agar mudah untuk dimakan.
+Selain sayuran, Gado-gado juga disertai dengan tambahan protein dalam bentuk telur rebus. Potongan telur rebus memberikan tekstur lembut dan rasa gurih yang menyatu sempurna dengan saus kacang.
+Saus kacang adalah komponen kunci dalam Gado-gado. Saus kacang ini terbuat dari kacang tanah yang dihaluskan dan dicampur dengan berbagai bumbu, seperti bawang putih, cabai, gula merah, garam, dan air 
+jeruk nipis. Saus ini memberikan cita rasa gurih, manis, pedas, dan kental yang melimpah-limpah, memperkaya selera dan menambahkan dimensi rasa yang mendalam pada hidangan.
+Selain itu, beberapa versi Gado-gado juga menyertakan potongan tahu dan tempe yang telah digoreng. Tahu dan tempe memberikan tambahan tekstur yang berbeda dan meningkatkan rasa hidangan.
+Gado-gado sering disajikan dengan kerupuk, seperti kerupuk udang atau emping, yang menambahkan tekstur yang renyah dan rasa yang gurih. Taburan bawang goreng dan kacang tanah panggang juga sering 
+ditambahkan untuk memberikan tambahan rasa dan tekstur yang nikmat.
+Gado-gado biasanya disajikan dalam porsi individu dan sering disantap sebagai hidangan utama atau camilan yang menyegarkan. Rasanya yang segar, beragam, dan bergizi membuatnya menjadi salah satu hidangan
+ yang sangat populer di Indonesia dan sering dijumpai di warung makan, restoran, atau acara-acara sosial.</t>
+  </si>
+  <si>
+    <t>ayam_Pop</t>
+  </si>
+  <si>
+    <t>Ayam Pop adalah hidangan ayam yang populer di Indonesia, terutama di daerah Jawa Barat. Hidangan ini terdiri dari potongan ayam yang diolah dengan cara digoreng kering hingga kulitnya renyah dan garing, 
+sementara dagingnya tetap lembut dan juicy di dalamnya.
+Proses persiapan Ayam Pop dimulai dengan memotong ayam menjadi potongan-potongan kecil yang sesuai, seperti potongan sayap, paha, atau dada. Potongan ayam tersebut kemudian diberi bumbu rempah khas Indonesia, 
+yang bisa berupa campuran bawang putih, bawang merah, jahe, ketumbar, kunyit, serta bumbu-bumbu lainnya yang dihaluskan atau dihaluskan kasar.
+Setelah meresap dalam bumbu selama beberapa waktu, potongan ayam kemudian digoreng dalam minyak panas hingga kulitnya menjadi renyah dan kecokelatan. Proses penggorengan ini membuat ayam memiliki tekstur kulit
+ yang garing dan renyah, sementara dagingnya tetap juicy dan penuh dengan cita rasa bumbu yang meresap.
+Ayam Pop sering disajikan sebagai hidangan utama atau lauk dalam makanan sehari-hari di rumah-rumah, restoran, atau warung makan di seluruh Indonesia. Hidangan ini biasanya disajikan bersama dengan nasi hangat 
+dan sambal atau acar sebagai pelengkapnya.
+Rasanya yang gurih, renyah, dan lezat membuat Ayam Pop menjadi salah satu hidangan yang sangat populer di Indonesia dan menjadi pilihan favorit banyak orang dalam berbagai kesempatan makan.</t>
+  </si>
+  <si>
+    <t>kerak_telor</t>
+  </si>
+  <si>
+    <t>Kerak Telor adalah makanan khas Betawi, Jakarta, Indonesia, yang terkenal dengan cita rasanya yang unik dan tradisional. Hidangan ini terbuat dari campuran beras ketan yang digoreng dengan telur, bawang merah, 
+ebi (udang kecil kering), dan serundeng (kelapa parut yang digoreng kering) yang telah dihaluskan atau dicacah halus. Proses pembuatan Kerak Telor biasanya dilakukan di atas tungku api terbuka.
+Pertama-tama, campuran beras ketan yang telah direndam air selama beberapa jam dicuci dan dihaluskan hingga halus. Bahan lainnya, seperti telur, bawang merah, ebi, dan serundeng, juga dipersiapkan dan dihaluskan 
+atau dihaluskan kasar sesuai selera.
+Selanjutnya, campuran beras ketan dan bahan-bahan lainnya dicampur secara merata hingga menjadi adonan yang kental dan lengket. Adonan tersebut kemudian digoreng dalam wajan atau penggorengan dengan sedikit minyak 
+panas hingga matang dan berwarna kecokelatan di kedua sisi.
+Proses penggorengan ini memberikan tekstur yang unik pada Kerak Telor. Bagian luar dari Kerak Telor menjadi renyah dan garing, sementara bagian dalamnya tetap lembut dan beraroma beras ketan yang khas. Selain itu, 
+campuran telur, bawang merah, ebi, dan serundeng memberikan cita rasa yang kaya dan gurih pada hidangan ini.
+Kerak Telor sering disajikan dengan taburan bawang goreng, irisan cabai merah, dan acar, yang menambahkan dimensi rasa dan tekstur yang lebih kompleks. Hidangan ini sering dijual di pinggir jalan atau di pasar 
+tradisional sebagai jajanan khas Betawi yang populer.
+Rasanya yang unik, teksturnya yang kaya, dan aroma beras ketan yang harum membuat Kerak Telor menjadi salah satu makanan favorit di Indonesia, terutama di daerah Jakarta.</t>
+  </si>
+  <si>
+    <t>rawon</t>
+  </si>
+  <si>
+    <t>Rawon adalah salah satu masakan tradisional khas Jawa Timur, Indonesia, yang terkenal dengan warna hitam pekat dan cita rasanya yang khas. Hidangan ini terbuat dari kuah daging sapi yang berwarna hitam yang disebabkan 
+oleh penggunaan kluwek (buah keluwak) yang dihaluskan atau direbus.
+Proses pembuatan Rawon dimulai dengan merebus daging sapi dalam air bersama dengan bumbu-bumbu rempah khas seperti lengkuas, jahe, serai, daun salam, daun jeruk, serta bumbu-bumbu lainnya seperti bawang putih, bawang merah,
+ketumbar, kunyit, dan kluwek yang telah dihaluskan. Rebusan ini kemudian dimasak dalam waktu yang cukup lama hingga daging menjadi empuk dan bumbu meresap.
+Selama proses memasak, kluwek memberikan warna hitam khas pada kuah Rawon dan juga memberikan aroma dan rasa yang unik. Kuah Rawon biasanya memiliki cita rasa yang kaya, gurih, dan sedikit pahit karena kluwek, serta harum 
+dari rempah-rempah yang digunakan.
+Selain daging sapi, kadang-kadang juga ditambahkan potongan telur rebus, tauge, atau irisan daun bawang sebagai tambahan pada hidangan Rawon. Hidangan ini biasanya disajikan dengan nasi putih hangat atau lontong, serta dilengkapi 
+dengan pelengkap seperti sambal terasi, irisan jeruk limo, dan kerupuk.
+Rawon merupakan hidangan yang sangat populer di Indonesia, terutama di Jawa Timur. Rasanya yang kaya, kompleks, dan menghangatkan membuatnya menjadi salah satu hidangan yang sangat dihargai oleh banyak orang, terutama saat cuaca 
+dingin atau dalam acara-acara istimewa.</t>
+  </si>
+  <si>
+    <t>lemang</t>
+  </si>
+  <si>
+    <t>Lemang adalah hidangan tradisional yang populer di Indonesia, khususnya di daerah Sumatera dan Kalimantan, serta di Malaysia. Hidangan ini terbuat dari beras ketan yang dimasak bersama dengan santan kelapa dalam bambu yang 
+telah diisi hingga penuh, kemudian dipanggang di atas bara api.
+Proses pembuatan lemang dimulai dengan mencuci beras ketan dan merendamnya dalam air selama beberapa jam atau semalaman. Setelah itu, beras ketan dicampur dengan santan kelapa yang telah dipanaskan dan dibumbui dengan sedikit
+garam. Campuran beras ketan dan santan kemudian dimasukkan ke dalam batang bambu yang telah dibersihkan dan diisi hingga penuh.
+Selanjutnya, bambu yang berisi campuran beras ketan dan santan tersebut dipanggang di atas bara api yang membara. Proses pemanggangan ini memakan waktu beberapa jam, tergantung pada ukuran dan ketebalan lemang. Selama proses pemanggangan, santan akan meresap ke dalam beras ketan dan membentuk tekstur yang khas, serta memberikan aroma yang harum.
+Hasilnya adalah lemang yang memiliki tekstur yang lembut, kenyal, dan beraroma santan yang khas. Lemang biasanya disajikan dengan lauk pauk khas seperti rendang, ayam goreng, atau opor ayam. Hidangan ini sering disajikan pada 
+acara-acara khusus seperti Hari Raya Idul Fitri atau Idul Adha, serta acara-acara tradisional lainnya.
+Rasa yang gurih, tekstur yang kenyal, dan aroma santan yang harum membuat lemang menjadi hidangan yang sangat disukai oleh banyak orang di Indonesia dan Malaysia. Tradisi memasak lemang juga merupakan bagian penting dari budaya masyarakat di daerah-daerah tempat hidangan ini berasal.</t>
+  </si>
+  <si>
+    <t>ayam_betutu</t>
+  </si>
+  <si>
+    <t>Ayam Betutu adalah hidangan khas Bali, Indonesia, yang terkenal dengan cita rasanya yang kaya dan pedas. Hidangan ini terbuat dari ayam yang dibumbui dengan campuran rempah-rempah khas Bali, lalu dibungkus dalam daun pisang dan dipanggang atau direbus hingga matang.
+Proses pembuatan Ayam Betutu dimulai dengan persiapan bumbu rempah yang meliputi berbagai bahan seperti bawang merah, bawang putih, cabai merah, cabai rawit, kunyit, jahe, lengkuas, kemiri, gula merah, garam, dan berbagai rempah lainnya. Semua bumbu ini dihaluskan atau dihaluskan kasar menjadi pasta atau bumbu yang kental.
+Setelah bumbu rempah siap, ayam yang telah dibersihkan kemudian diolesi dengan bumbu rempah tersebut secara merata, baik di dalam maupun di luar daging ayam. Proses ini memastikan bahwa cita rasa rempah yang khas meresap dalam 
+daging ayam.
+Selanjutnya, ayam yang telah dibumbui kemudian dibungkus dalam daun pisang untuk menjaga kelembapan dan aroma rempah saat proses memasak. Ayam Betutu bisa dipanggang dalam oven atau dipanggang di atas bara api, atau bahkan direbus 
+dalam panci dengan sedikit air hingga empuk dan matang.
+Hasilnya adalah ayam yang memiliki cita rasa yang sangat kaya dan beraroma, dengan cita rasa rempah yang khas dan pedas yang meresap dalam daging. Ayam Betutu biasanya disajikan dengan nasi putih hangat, lalapan seperti irisan 
+mentimun dan tomat, serta sambal atau acar sebagai pelengkapnya.
+Ayam Betutu merupakan salah satu hidangan khas Bali yang sangat populer di Indonesia dan menjadi pilihan favorit bagi banyak orang yang mengunjungi pulau Bali. Rasanya yang kaya, pedas, dan beraroma membuatnya menjadi hidangan yang sangat dihargai dalam budaya kuliner Indonesia.</t>
   </si>
 </sst>
 </file>
@@ -399,10 +539,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76E26E00-BDE6-4404-9787-1EC3CF5862F3}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -427,7 +567,80 @@
         <v>2</v>
       </c>
     </row>
+    <row r="3" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>